--- a/assembly/BluePill.xlsx
+++ b/assembly/BluePill.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucliveac-my.sharepoint.com/personal/gal65_uclive_ac_nz/Documents/Masters 2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file\Usersg$\gal65\Home\My Documents\~Masters\masters_STM32\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E2312B-95A7-40E6-A7EE-41A44714C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02EE67-885C-4876-9BC3-CD05A564CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37425" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BluePill" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>Component Count:</t>
   </si>
@@ -332,12 +331,6 @@
     <t>C15742</t>
   </si>
   <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>C11702</t>
   </si>
   <si>
@@ -402,9 +395,6 @@
   </si>
   <si>
     <t>399-C0603C105K3RAC7867CT-ND</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>1276-1119-1-ND</t>
@@ -1283,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1287,7 @@
     <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1327,11 +1317,8 @@
       <c r="G3" t="s">
         <v>97</v>
       </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1348,16 +1335,13 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1377,13 +1361,10 @@
         <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1400,16 +1381,13 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1429,21 +1407,18 @@
         <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1455,13 +1430,10 @@
         <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1481,13 +1453,10 @@
         <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1504,16 +1473,13 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1533,13 +1499,10 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1559,13 +1522,10 @@
         <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1585,13 +1545,10 @@
         <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1608,16 +1565,13 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1634,16 +1588,13 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1665,11 +1616,8 @@
       <c r="G29" t="s">
         <v>101</v>
       </c>
-      <c r="H29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1690,9 +1638,6 @@
       </c>
       <c r="G31" t="s">
         <v>100</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1712,13 +1657,10 @@
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,9 +1683,6 @@
         <v>99</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1764,13 +1703,10 @@
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1790,13 +1726,10 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1821,9 +1754,6 @@
       <c r="G41" t="s">
         <v>101</v>
       </c>
-      <c r="H41" t="s">
-        <v>101</v>
-      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
@@ -1851,10 +1781,7 @@
         <v>99</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1877,10 +1804,7 @@
         <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -1905,13 +1829,10 @@
         <v>99</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -1931,13 +1852,10 @@
         <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>123</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -1954,16 +1872,13 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -1983,13 +1898,10 @@
         <v>99</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
-      </c>
-      <c r="H53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2009,13 +1921,10 @@
         <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2032,16 +1941,13 @@
         <v>76</v>
       </c>
       <c r="F57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" t="s">
         <v>110</v>
       </c>
-      <c r="G57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2058,16 +1964,13 @@
         <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
-      </c>
-      <c r="H59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -2089,11 +1992,8 @@
       <c r="G61" t="s">
         <v>102</v>
       </c>
-      <c r="H61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -2113,13 +2013,10 @@
         <v>99</v>
       </c>
       <c r="G63" t="s">
-        <v>118</v>
-      </c>
-      <c r="H63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -2136,16 +2033,13 @@
         <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
-      </c>
-      <c r="H65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -2162,16 +2056,13 @@
         <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
-      </c>
-      <c r="H67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -2191,10 +2082,7 @@
         <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
-      </c>
-      <c r="H69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
